--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_15_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_15_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>631114.5138821226</v>
+        <v>716482.3826239927</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12433754.73901463</v>
+        <v>12433859.31651125</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367737</v>
+        <v>6544539.720854492</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9333203.21140076</v>
+        <v>9332082.582681658</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>32.55518202532715</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>19.9894699021032</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,25 +740,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>41.51845459935264</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>97.99706487181489</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>70.35805159865703</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>198.1898581480446</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>87.04101601300893</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885167</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>82.0708314132448</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1026,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>181.7843401443665</v>
+        <v>184.0639452095334</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>104.6776080181835</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887346</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>107.7049353774493</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>144.415455995235</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>208.2474868886336</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>158.4341524853654</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>101.4283403005209</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>320.5832054814061</v>
       </c>
       <c r="D11" t="n">
-        <v>4.443625914096515</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292601</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492293</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471482</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>85.17289288835083</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680958</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492339</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>74.75769145492382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1850,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>330.6677928008968</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>229.7965692041365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247586</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>224.9310738379644</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>19.58945082857412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>10.68879048862377</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>33.24139751941106</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>76.41875471975101</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>109.9022384814633</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,13 +2323,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>324.4823532639336</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>92.47445699814261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>135.259425062653</v>
       </c>
     </row>
     <row r="26">
@@ -2561,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>109.1555248377173</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>308.9203564757127</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>71.67037196991771</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>186.0466578661063</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>95.92502041856017</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>168.1158122680958</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2962,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>261.8409498966701</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2062474346968</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3044,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>228.5394683647121</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>168.1158122680958</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>71.6703719699175</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>142.3844270995957</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>236.741056040672</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>229.7965692041362</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.2948428891857</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>36.15999212057486</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3503,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>57.92518451681062</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>28.90798465780279</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3740,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>135.4371632022837</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>154.1552139341808</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3918,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>20.84901245549702</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>88.93215267004737</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>114.265617377101</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3977,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>110.0923443600212</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>173.5578851713647</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>169.8533726391782</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>22.19839715300973</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>586.7364457822816</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C2" t="n">
-        <v>586.7364457822816</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D2" t="n">
-        <v>586.7364457822816</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E2" t="n">
-        <v>586.7364457822816</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F2" t="n">
-        <v>553.8524235344764</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672985</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>1034.664136266526</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822816</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="V2" t="n">
-        <v>586.7364457822816</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="W2" t="n">
-        <v>586.7364457822816</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="X2" t="n">
-        <v>586.7364457822816</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y2" t="n">
-        <v>586.7364457822816</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253.9349598892539</v>
+        <v>886.6401829859565</v>
       </c>
       <c r="C3" t="n">
-        <v>211.9971269606149</v>
+        <v>712.1871537048295</v>
       </c>
       <c r="D3" t="n">
-        <v>211.9971269606149</v>
+        <v>563.2527440435782</v>
       </c>
       <c r="E3" t="n">
-        <v>211.9971269606149</v>
+        <v>404.0152890381227</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>257.4807310650077</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>120.0840446140749</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4437,22 +4439,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374624</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>629.9105956742759</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>629.9105956742759</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>629.9105956742759</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X3" t="n">
-        <v>629.9105956742759</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y3" t="n">
-        <v>422.150296909322</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.9997464279937</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="C4" t="n">
-        <v>776.9997464279937</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="D4" t="n">
-        <v>776.9997464279937</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0866528456006</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="F4" t="n">
-        <v>482.1967053476902</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>983.7867810174823</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>776.9997464279937</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>776.9997464279937</v>
+        <v>854.6637440989088</v>
       </c>
       <c r="U4" t="n">
-        <v>776.9997464279937</v>
+        <v>588.2860875317308</v>
       </c>
       <c r="V4" t="n">
-        <v>776.9997464279937</v>
+        <v>588.2860875317308</v>
       </c>
       <c r="W4" t="n">
-        <v>776.9997464279937</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="X4" t="n">
-        <v>776.9997464279937</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="Y4" t="n">
-        <v>776.9997464279937</v>
+        <v>321.9084309645528</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1693.271819567869</v>
+        <v>487.1869779105734</v>
       </c>
       <c r="C5" t="n">
-        <v>1693.271819567869</v>
+        <v>487.1869779105734</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.006120961119</v>
+        <v>128.9212793038229</v>
       </c>
       <c r="E5" t="n">
-        <v>949.2178683628745</v>
+        <v>128.9212793038229</v>
       </c>
       <c r="F5" t="n">
-        <v>538.231963573267</v>
+        <v>128.9212793038229</v>
       </c>
       <c r="G5" t="n">
-        <v>121.7856545863159</v>
+        <v>128.9212793038229</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135738</v>
+        <v>128.9212793038229</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135738</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780281</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818697</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373993</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176493</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058971</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836699</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921691</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567869</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567869</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567869</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567869</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567869</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V5" t="n">
-        <v>1693.271819567869</v>
+        <v>1603.560723417579</v>
       </c>
       <c r="W5" t="n">
-        <v>1693.271819567869</v>
+        <v>1250.792068147465</v>
       </c>
       <c r="X5" t="n">
-        <v>1693.271819567869</v>
+        <v>877.3263098863852</v>
       </c>
       <c r="Y5" t="n">
-        <v>1693.271819567869</v>
+        <v>487.1869779105734</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>208.3184656724844</v>
+        <v>367.4196953491411</v>
       </c>
       <c r="C6" t="n">
-        <v>33.86543639135738</v>
+        <v>192.966666068014</v>
       </c>
       <c r="D6" t="n">
-        <v>33.86543639135738</v>
+        <v>192.966666068014</v>
       </c>
       <c r="E6" t="n">
-        <v>33.86543639135738</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="F6" t="n">
-        <v>33.86543639135738</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135738</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135738</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135738</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324461</v>
+        <v>183.8748628766941</v>
       </c>
       <c r="K6" t="n">
-        <v>181.4029958650501</v>
+        <v>305.2979551469729</v>
       </c>
       <c r="L6" t="n">
-        <v>391.6716089877855</v>
+        <v>514.8888283998035</v>
       </c>
       <c r="M6" t="n">
-        <v>682.8171459639293</v>
+        <v>778.8283598952908</v>
       </c>
       <c r="N6" t="n">
-        <v>968.9628393756576</v>
+        <v>1064.162230328624</v>
       </c>
       <c r="O6" t="n">
-        <v>1208.510450549855</v>
+        <v>1302.967182080082</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.595225892903</v>
+        <v>1475.296143033791</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.271819567869</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567869</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567869</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1509.651273967499</v>
+        <v>1500.537376148601</v>
       </c>
       <c r="U6" t="n">
-        <v>1281.535066622983</v>
+        <v>1272.420959279572</v>
       </c>
       <c r="V6" t="n">
-        <v>1046.382958391241</v>
+        <v>1037.268851047829</v>
       </c>
       <c r="W6" t="n">
-        <v>792.1456016630391</v>
+        <v>783.0314943196279</v>
       </c>
       <c r="X6" t="n">
-        <v>584.2941014575063</v>
+        <v>575.1799941140951</v>
       </c>
       <c r="Y6" t="n">
-        <v>376.5338026925524</v>
+        <v>367.4196953491411</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.86543639135738</v>
+        <v>890.6906211270904</v>
       </c>
       <c r="C7" t="n">
-        <v>33.86543639135738</v>
+        <v>721.7544381991835</v>
       </c>
       <c r="D7" t="n">
-        <v>33.86543639135738</v>
+        <v>571.6377987868477</v>
       </c>
       <c r="E7" t="n">
-        <v>33.86543639135738</v>
+        <v>423.7247052044546</v>
       </c>
       <c r="F7" t="n">
-        <v>33.86543639135738</v>
+        <v>423.7247052044546</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135738</v>
+        <v>255.4029327975785</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135738</v>
+        <v>149.6679752034538</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135738</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652212</v>
+        <v>35.96388306992289</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128601</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119592</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191546</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361664</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021382</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580468</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397016</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1178.322155933648</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>975.8964400230177</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>867.1035760053921</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>577.9670946342048</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>323.282606428318</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="W7" t="n">
-        <v>33.86543639135738</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="X7" t="n">
-        <v>33.86543639135738</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.86543639135738</v>
+        <v>1072.33908595733</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1575.249159503017</v>
+        <v>977.0694062730072</v>
       </c>
       <c r="C8" t="n">
-        <v>1206.286642562605</v>
+        <v>608.1068893325955</v>
       </c>
       <c r="D8" t="n">
-        <v>848.0209439558549</v>
+        <v>608.1068893325955</v>
       </c>
       <c r="E8" t="n">
-        <v>462.2326913576107</v>
+        <v>608.1068893325955</v>
       </c>
       <c r="F8" t="n">
-        <v>51.24678656800313</v>
+        <v>197.120984542988</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400156</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X8" t="n">
-        <v>2351.988331542951</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y8" t="n">
-        <v>1961.848999567139</v>
+        <v>1363.669246337129</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625333</v>
+        <v>846.306131908167</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341572</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.486495938517</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710447</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825.1371474485143</v>
+        <v>937.3909343092793</v>
       </c>
       <c r="C10" t="n">
-        <v>656.2009645206074</v>
+        <v>768.4547513813724</v>
       </c>
       <c r="D10" t="n">
-        <v>506.0843251082716</v>
+        <v>618.3381119690366</v>
       </c>
       <c r="E10" t="n">
-        <v>358.1712315258785</v>
+        <v>470.4250183866435</v>
       </c>
       <c r="F10" t="n">
-        <v>211.2812840279682</v>
+        <v>470.4250183866435</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>302.4385536949221</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>153.6996555584283</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485143</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>825.1371474485143</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>825.1371474485143</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>825.1371474485143</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>825.1371474485143</v>
+        <v>1119.039399139519</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1605.60199849331</v>
+        <v>1616.654488422264</v>
       </c>
       <c r="C11" t="n">
-        <v>1236.639481552899</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D11" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912101</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V11" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W11" t="n">
-        <v>2755.806928794324</v>
+        <v>2766.859418723277</v>
       </c>
       <c r="X11" t="n">
-        <v>2382.341170533244</v>
+        <v>2393.393660462198</v>
       </c>
       <c r="Y11" t="n">
-        <v>1992.201838557432</v>
+        <v>2003.254328486386</v>
       </c>
     </row>
     <row r="12">
@@ -5115,13 +5117,13 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158128</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>111.6347488791189</v>
@@ -5221,28 +5223,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271508</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>142.0249360836207</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796252</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>552.8079389392135</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>194.542240332463</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>108.5090151927147</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
@@ -5297,31 +5299,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180638</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919559</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943747</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5348,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C16" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D16" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E16" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F16" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G16" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5455,10 +5457,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
         <v>1645.778206672847</v>
@@ -5470,16 +5472,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>142.0249360836212</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1127.748203495403</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C17" t="n">
-        <v>758.7856865549913</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D17" t="n">
-        <v>400.5199879482408</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E17" t="n">
-        <v>400.5199879482408</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F17" t="n">
-        <v>400.5199879482408</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410101</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V17" t="n">
-        <v>2630.721789066531</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W17" t="n">
-        <v>2277.953133796416</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X17" t="n">
-        <v>1904.487375535336</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y17" t="n">
-        <v>1514.348043559525</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387288</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927764</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5607,37 +5609,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>531.7821255545682</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5677,19 +5679,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088492</v>
@@ -5698,25 +5700,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915318</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484844</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U19" t="n">
-        <v>1513.842048484844</v>
+        <v>1478.324827771186</v>
       </c>
       <c r="V19" t="n">
-        <v>1513.842048484844</v>
+        <v>1223.640339565299</v>
       </c>
       <c r="W19" t="n">
-        <v>1494.054724415577</v>
+        <v>934.2231695283381</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.054724415577</v>
+        <v>934.2231695283381</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.262145272047</v>
+        <v>713.4305903848079</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1594.601034732593</v>
+        <v>1955.701599376</v>
       </c>
       <c r="C20" t="n">
-        <v>1225.638517792182</v>
+        <v>1586.739082435588</v>
       </c>
       <c r="D20" t="n">
-        <v>867.3728191854311</v>
+        <v>1586.739082435588</v>
       </c>
       <c r="E20" t="n">
-        <v>481.5845665871869</v>
+        <v>1200.950829837344</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>789.9649250477366</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>374.8924748927331</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>77.30887450150033</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939507</v>
@@ -5771,31 +5773,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3292.028652397644</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3292.028652397644</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>3038.49817567148</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V20" t="n">
-        <v>2707.435288327909</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W20" t="n">
-        <v>2354.666633057795</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X20" t="n">
-        <v>1981.200874796715</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y20" t="n">
-        <v>1981.200874796715</v>
+        <v>1955.701599376</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5853,28 +5855,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>385.564938772426</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C22" t="n">
-        <v>216.6287558445191</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D22" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E22" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F22" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5932,28 +5934,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658018</v>
+        <v>1568.587545339765</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>1279.484678465408</v>
       </c>
       <c r="V22" t="n">
-        <v>1305.412703681174</v>
+        <v>1024.800190259521</v>
       </c>
       <c r="W22" t="n">
-        <v>1015.995533644213</v>
+        <v>1024.800190259521</v>
       </c>
       <c r="X22" t="n">
-        <v>788.0059827461959</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="Y22" t="n">
-        <v>567.2134036026657</v>
+        <v>796.8106393615039</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2345.167438673965</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1148.925018530803</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1148.925018530803</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F23" t="n">
         <v>821.1650657389509</v>
@@ -5987,25 +5989,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6020,19 +6022,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V23" t="n">
-        <v>3215.315153136265</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W23" t="n">
-        <v>3215.315153136265</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X23" t="n">
-        <v>3121.906610713899</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y23" t="n">
-        <v>2731.767278738087</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
         <v>66.5121164321834</v>
@@ -6078,40 +6080,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.044275313594</v>
+        <v>3036.188651572209</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.054724415577</v>
+        <v>2808.199100674192</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1616.654488422266</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C26" t="n">
-        <v>1247.691971481854</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D26" t="n">
-        <v>889.4262728751039</v>
+        <v>764.3411331473092</v>
       </c>
       <c r="E26" t="n">
-        <v>779.1681669784198</v>
+        <v>378.5528805490649</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>3119.628073993394</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W26" t="n">
-        <v>2766.859418723279</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X26" t="n">
-        <v>2393.393660462199</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y26" t="n">
-        <v>2003.254328486388</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2151.073568494537</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C28" t="n">
-        <v>1982.13738556663</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D28" t="n">
-        <v>1832.020746154295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E28" t="n">
-        <v>1684.107652571901</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F28" t="n">
-        <v>1537.217705073991</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952862</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952862</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399798</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.605821609171</v>
+        <v>1457.852289636376</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.605821609171</v>
+        <v>1168.749422762019</v>
       </c>
       <c r="V28" t="n">
-        <v>3070.921333403285</v>
+        <v>914.0649345561324</v>
       </c>
       <c r="W28" t="n">
-        <v>2781.504163366324</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="X28" t="n">
-        <v>2553.514612468307</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="Y28" t="n">
-        <v>2332.722033324777</v>
+        <v>624.6477645191717</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.480899540948</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1733.518382600537</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>1375.252683993786</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>989.4644313955421</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>578.4785266059346</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>163.406076450931</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218339</v>
@@ -6467,7 +6469,7 @@
         <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
@@ -6488,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136265</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V29" t="n">
-        <v>3215.315153136265</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W29" t="n">
-        <v>2862.54649786615</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.08073960507</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y29" t="n">
-        <v>2489.08073960507</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="30">
@@ -6552,16 +6554,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2176.004930555061</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C31" t="n">
-        <v>2007.068747627154</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D31" t="n">
-        <v>1856.952108214819</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E31" t="n">
-        <v>1709.039014632425</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F31" t="n">
-        <v>1562.149067134515</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G31" t="n">
-        <v>1562.149067134515</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H31" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.60582160917</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.60582160917</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U31" t="n">
-        <v>3325.60582160917</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V31" t="n">
-        <v>3070.921333403283</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W31" t="n">
-        <v>2806.435525426848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X31" t="n">
-        <v>2578.445974528831</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y31" t="n">
-        <v>2357.653395385301</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1878.169188758594</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C32" t="n">
-        <v>1509.206671818182</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>1509.206671818182</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>1123.418419219938</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>712.4325144303305</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>297.3600642753269</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>2994.5429342656</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W32" t="n">
-        <v>2641.774278995485</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.308520734406</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.169188758594</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6773,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6798,7 +6800,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
         <v>2564.909189125856</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2489.924953962485</v>
+        <v>2151.073568494535</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034578</v>
+        <v>1982.137385566628</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622242</v>
+        <v>1832.020746154293</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.959038039849</v>
+        <v>1684.1076525719</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>1537.217705073989</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134516</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L34" t="n">
         <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.605821609171</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W34" t="n">
-        <v>3036.18865157221</v>
+        <v>2781.504163366322</v>
       </c>
       <c r="X34" t="n">
-        <v>2892.365997936255</v>
+        <v>2553.514612468305</v>
       </c>
       <c r="Y34" t="n">
-        <v>2671.573418792725</v>
+        <v>2332.722033324775</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1418.660964416652</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C35" t="n">
-        <v>1049.698447476241</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D35" t="n">
-        <v>691.4327488694903</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E35" t="n">
-        <v>305.6444962712461</v>
+        <v>709.6157678926356</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218342</v>
+        <v>298.6298631030281</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W35" t="n">
-        <v>2182.266054653544</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X35" t="n">
-        <v>1808.800296392464</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y35" t="n">
-        <v>1418.660964416652</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7010,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7026,16 +7028,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>380.4321398396066</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C37" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D37" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E37" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7117,28 +7119,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1662.418794998358</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1662.418794998358</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U37" t="n">
-        <v>1373.315928124002</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V37" t="n">
-        <v>1118.631439918115</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W37" t="n">
-        <v>829.2142698811541</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X37" t="n">
-        <v>601.2247189831368</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y37" t="n">
-        <v>380.4321398396066</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796256</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C38" t="n">
-        <v>921.7704558796256</v>
+        <v>869.0763550278959</v>
       </c>
       <c r="D38" t="n">
-        <v>921.7704558796256</v>
+        <v>510.8106564211454</v>
       </c>
       <c r="E38" t="n">
-        <v>921.7704558796256</v>
+        <v>125.0224038229012</v>
       </c>
       <c r="F38" t="n">
-        <v>510.7845510900181</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G38" t="n">
-        <v>95.71210093501452</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912096</v>
@@ -7184,40 +7186,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>1624.638712032429</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7266,7 +7268,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P39" t="n">
         <v>2407.41198488674</v>
@@ -7275,28 +7277,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="40">
@@ -7330,7 +7332,7 @@
         <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K40" t="n">
         <v>1713.933205348673</v>
@@ -7339,31 +7341,31 @@
         <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S40" t="n">
-        <v>3150.225125372326</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="T40" t="n">
-        <v>2928.458509941852</v>
+        <v>2912.153322005522</v>
       </c>
       <c r="U40" t="n">
-        <v>2639.355643067496</v>
+        <v>2639.355643067495</v>
       </c>
       <c r="V40" t="n">
         <v>2384.671154861609</v>
@@ -7372,10 +7374,10 @@
         <v>2095.253984824648</v>
       </c>
       <c r="X40" t="n">
-        <v>1867.264433926631</v>
+        <v>1867.26443392663</v>
       </c>
       <c r="Y40" t="n">
-        <v>1646.471854783101</v>
+        <v>1646.4718547831</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1754.744438482645</v>
+        <v>2085.807325826215</v>
       </c>
       <c r="C41" t="n">
-        <v>1754.744438482645</v>
+        <v>1716.844808885803</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>1358.579110279053</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528559</v>
+        <v>972.7908576808084</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389511</v>
+        <v>561.8049528912009</v>
       </c>
       <c r="G41" t="n">
         <v>406.0926155839475</v>
@@ -7406,55 +7408,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810549</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060169</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939505</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052365</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="V41" t="n">
-        <v>2884.252265792693</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="W41" t="n">
-        <v>2531.483610522579</v>
+        <v>2862.546497866148</v>
       </c>
       <c r="X41" t="n">
-        <v>2531.483610522579</v>
+        <v>2862.546497866148</v>
       </c>
       <c r="Y41" t="n">
-        <v>2141.344278546767</v>
+        <v>2472.407165890337</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7487,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228006</v>
@@ -7494,22 +7496,22 @@
         <v>398.4535849031476</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1015.347611801059</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C43" t="n">
-        <v>846.411428873152</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D43" t="n">
-        <v>696.2947894608162</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E43" t="n">
-        <v>548.3816958784231</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F43" t="n">
-        <v>401.4917483805127</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>233.7889117552317</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H43" t="n">
-        <v>87.57172497308946</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764912</v>
@@ -7594,25 +7596,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672846</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T43" t="n">
-        <v>1645.778206672846</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U43" t="n">
-        <v>1645.778206672846</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V43" t="n">
-        <v>1645.778206672846</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W43" t="n">
-        <v>1645.778206672846</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X43" t="n">
-        <v>1417.788655774829</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y43" t="n">
-        <v>1196.996076631299</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796238</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C44" t="n">
-        <v>810.5660676371781</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D44" t="n">
-        <v>452.3003690304276</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>66.51211643218338</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218338</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
         <v>66.51211643218338</v>
@@ -7646,19 +7648,19 @@
         <v>66.51211643218338</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912086</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939506</v>
@@ -7673,25 +7675,25 @@
         <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520486</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794322</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450751</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180637</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919557</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943746</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7733,22 @@
         <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>923.9108438165264</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C46" t="n">
-        <v>754.9746608886195</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D46" t="n">
-        <v>604.8580214762837</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E46" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F46" t="n">
-        <v>310.0549803959802</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
         <v>310.0549803959802</v>
@@ -7831,25 +7833,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088492</v>
+        <v>1755.725484816594</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088492</v>
+        <v>1755.725484816594</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214135</v>
+        <v>1466.622617942238</v>
       </c>
       <c r="V46" t="n">
-        <v>1638.191681214135</v>
+        <v>1466.622617942238</v>
       </c>
       <c r="W46" t="n">
-        <v>1348.774511177175</v>
+        <v>1177.205447905277</v>
       </c>
       <c r="X46" t="n">
-        <v>1326.351887790296</v>
+        <v>1177.205447905277</v>
       </c>
       <c r="Y46" t="n">
-        <v>1105.559308646766</v>
+        <v>956.4128687617472</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157931</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>26.68193436303261</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>248.646226998564</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>147.3598584166012</v>
       </c>
       <c r="R6" t="n">
-        <v>45.32591189688976</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>255.8421700460951</v>
       </c>
       <c r="M9" t="n">
         <v>273.6534998179985</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>21.18099370047503</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.595168441781425e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22556,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>374.3208637163843</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>50.4797526277618</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -22595,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>132.7782232971191</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22626,25 +22628,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>131.1900443889631</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>1.482255399394859</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22677,10 +22679,10 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22711,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>57.14655128500689</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>25.02448773152122</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22790,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H5" t="n">
-        <v>221.4960798193679</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539855</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398513</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>245.6814270568901</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22869,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253649</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813363</v>
+        <v>33.85559031833735</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22911,10 +22913,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>11.86548666364806</v>
+        <v>9.598590098294807</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>45.52527964573702</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>114.4508181279522</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23024,22 +23026,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>267.1322467777189</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -23078,13 +23080,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>161.4836137898354</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23188,16 +23190,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>7.872447559438825</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>3.368254903379636</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>44.68968628960141</v>
       </c>
       <c r="D11" t="n">
-        <v>350.2394157065864</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270144</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944278</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>296.757477183911</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>181.1251564493172</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>21.59472895491427</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23738,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>80.2539328525566</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>21.19860275476543</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>61.28076436764846</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>266.9335475080169</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>30.88813928430221</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>75.9463642687648</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
@@ -24026,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>143.1301945564182</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>142.2354048423647</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24209,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>57.44801680832819</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24260,19 +24262,19 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>277.2566436803264</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>83.32522828944178</v>
       </c>
     </row>
     <row r="26">
@@ -24449,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>272.7748452345445</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>97.95568926599873</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,13 +24496,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>94.35543628911051</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>33.50229141006292</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>198.6827439687603</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>82.87935969080615</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -24895,13 +24897,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>24.68204843992089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>75.5034079543403</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>66.06829602260839</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -24974,10 +24976,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>159.6364462020391</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>94.35543628911073</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>83.32522828944147</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25163,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>170.1349897010394</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493172</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25205,13 +25207,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>16.47418244225616</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>183.3889571555943</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25391,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>348.9508612249008</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>265.6997797295177</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>219.2458784183992</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>256.7665117192727</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25685,7 +25687,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>75.5034079543411</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>75.50340795434097</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -25865,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>255.1805474109863</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>154.1943732987702</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>19.91565269226368</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>203.5112582360274</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>523336.9476551464</v>
+        <v>523336.9476551465</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>633834.0120080734</v>
+        <v>632668.5581402066</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>861641.9069024867</v>
+        <v>861641.9069024866</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861641.9069024866</v>
+        <v>861641.9069024865</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861641.9069024868</v>
+        <v>861641.9069024865</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861641.9069024865</v>
+        <v>861641.9069024867</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>861641.9069024867</v>
+        <v>861641.9069024866</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>861641.9069024866</v>
+        <v>861641.9069024865</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>861641.9069024863</v>
+        <v>861641.9069024865</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>203966.5811971124</v>
+        <v>203966.5811971125</v>
       </c>
       <c r="C2" t="n">
-        <v>247461.8373661102</v>
+        <v>247001.9304687608</v>
       </c>
       <c r="D2" t="n">
-        <v>305971.6304943086</v>
+        <v>305971.6304943087</v>
       </c>
       <c r="E2" t="n">
         <v>340997.0989709206</v>
@@ -26329,7 +26331,7 @@
         <v>340997.0989709205</v>
       </c>
       <c r="H2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="I2" t="n">
         <v>340997.0989709205</v>
@@ -26338,22 +26340,22 @@
         <v>340997.0989709204</v>
       </c>
       <c r="K2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="L2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="N2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709204</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26368,37 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739507</v>
+        <v>174787.7031330586</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.309381907</v>
+        <v>225670.615630709</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171901</v>
+        <v>182072.9798171903</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911417</v>
+        <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640807</v>
+        <v>40638.73104112947</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946816</v>
+        <v>55419.25877810587</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341477</v>
+        <v>47552.2657934148</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>13649.17455297509</v>
       </c>
       <c r="C4" t="n">
-        <v>15532.0481385487</v>
+        <v>15515.03330562076</v>
       </c>
       <c r="D4" t="n">
         <v>18583.86599059036</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091499</v>
+        <v>9770.403102091497</v>
       </c>
       <c r="F4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.40310209149</v>
       </c>
       <c r="G4" t="n">
-        <v>9770.403102091503</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="H4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091494</v>
       </c>
       <c r="I4" t="n">
-        <v>9770.403102091495</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="J4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="K4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="L4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="M4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="N4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091501</v>
       </c>
       <c r="O4" t="n">
-        <v>9770.403102091499</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="P4" t="n">
-        <v>9770.403102091499</v>
+        <v>9770.403102091475</v>
       </c>
     </row>
     <row r="5">
@@ -26467,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.8716792312</v>
+        <v>75611.38525919239</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.34056139324</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139326</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-552818.377151322</v>
+        <v>-552818.3771513219</v>
       </c>
       <c r="C6" t="n">
-        <v>-20489.70662562046</v>
+        <v>-18912.19122911099</v>
       </c>
       <c r="D6" t="n">
-        <v>-29436.31731803354</v>
+        <v>-31220.62356683535</v>
       </c>
       <c r="E6" t="n">
-        <v>74847.3754902457</v>
+        <v>74847.37549024558</v>
       </c>
       <c r="F6" t="n">
-        <v>256920.3553074354</v>
+        <v>256920.3553074355</v>
       </c>
       <c r="G6" t="n">
-        <v>256920.3553074361</v>
+        <v>256920.3553074358</v>
       </c>
       <c r="H6" t="n">
         <v>256920.3553074356</v>
       </c>
       <c r="I6" t="n">
-        <v>256920.3553074357</v>
+        <v>256920.3553074358</v>
       </c>
       <c r="J6" t="n">
-        <v>187921.2008883215</v>
+        <v>187921.2008883216</v>
       </c>
       <c r="K6" t="n">
-        <v>215843.3737610276</v>
+        <v>216281.6242663064</v>
       </c>
       <c r="L6" t="n">
-        <v>201932.0640879676</v>
+        <v>201501.09652933</v>
       </c>
       <c r="M6" t="n">
-        <v>209368.0895140211</v>
+        <v>209368.0895140209</v>
       </c>
       <c r="N6" t="n">
         <v>256920.3553074359</v>
@@ -26561,7 +26563,7 @@
         <v>256920.3553074358</v>
       </c>
       <c r="P6" t="n">
-        <v>256920.3553074358</v>
+        <v>256920.3553074357</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908067</v>
+        <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919673</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.401455402292</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022922</v>
@@ -26960,22 +26962,22 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213283</v>
+        <v>135.9259427281316</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267328</v>
+        <v>184.0839356199291</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757586</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904611</v>
+        <v>157.9012582804757</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080718</v>
+        <v>218.969693818057</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015065</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904607</v>
+        <v>157.9012582804757</v>
       </c>
       <c r="L4" t="n">
-        <v>217.266877208072</v>
+        <v>218.969693818057</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904611</v>
+        <v>157.9012582804757</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080718</v>
+        <v>218.969693818057</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053492</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339033</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050074</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677678</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599722</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159768</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285356</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383302</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113107</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P5" t="n">
-        <v>434.407990790615</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190742</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025528</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639402</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802917</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442793</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546264</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395997</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328144</v>
+        <v>55.54104253307773</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433205</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499201</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876877</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449896</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345741</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587858</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077335</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970985</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670742</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>30.0224259963308</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807086</v>
+        <v>6.502193386993428</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043595</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950635</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952474</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720638</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390988</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029919</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165517</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706799</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N7" t="n">
-        <v>207.362357637955</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488044</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170113</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886118</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843489</v>
+        <v>60.80993132519963</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544878</v>
+        <v>23.56907366567078</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879984</v>
+        <v>5.778541795965189</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548926</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,37 +32305,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32342,7 +32344,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32391,16 +32393,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32409,19 +32411,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32798,7 +32800,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O24" t="n">
         <v>557.7086478970249</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33269,7 +33271,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33746,7 +33748,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O36" t="n">
         <v>557.7086478970249</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I38" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,37 +33964,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J39" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34001,7 +34003,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34050,16 +34052,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L40" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N40" t="n">
         <v>300.7247737883114</v>
@@ -34068,19 +34070,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S40" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780294</v>
@@ -34214,7 +34216,7 @@
         <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138809</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233473</v>
@@ -34384,7 +34386,7 @@
         <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
         <v>473.0999946781688</v>
@@ -34451,7 +34453,7 @@
         <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138809</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233473</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108152</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149916</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459896</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012629</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417392</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O5" t="n">
-        <v>278.888041189624</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353455</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446248</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665376</v>
+        <v>151.6622745597329</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755611</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078135</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>294.0864009860039</v>
+        <v>266.6055873691791</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512408</v>
+        <v>288.2160307407401</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143413</v>
+        <v>241.2171229812711</v>
       </c>
       <c r="P6" t="n">
-        <v>423.3179548919673</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107698</v>
+        <v>213.2973839334707</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237105</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K7" t="n">
-        <v>135.164770077109</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768678</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325205</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171836</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O7" t="n">
-        <v>216.117827762844</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819047</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691743</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>356.6056756965982</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525805</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525805</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340067</v>
       </c>
       <c r="M42" t="n">
         <v>451.794267901329</v>
@@ -38099,7 +38101,7 @@
         <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340067</v>
       </c>
       <c r="M45" t="n">
         <v>451.794267901329</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_15_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_15_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>673142.2298926736</v>
+        <v>710613.4162382344</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367736</v>
+        <v>6542240.186367732</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9333203.211400758</v>
+        <v>9333203.21140076</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -791,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>134.4156738645892</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>107.297782492468</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>39.13625793941092</v>
       </c>
       <c r="C4" t="n">
-        <v>20.64107630343887</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>46.13100563165631</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398513</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>180.8153887840623</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.6252005425365</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075071</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>171.1263458356003</v>
       </c>
       <c r="U6" t="n">
         <v>225.8350452710705</v>
@@ -1040,10 +1040,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>86.30800062428473</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.72713220833325</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>111.898025789627</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>188.9034590372343</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>247.2855185259883</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>150.6183551291242</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>136.8917226135567</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>44.02483164561428</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>334.9753613846901</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>18.26879610204004</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>111.9811935083363</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>67.31415923929845</v>
+        <v>236.741056040672</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1666,13 +1666,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.312614947327885</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>67.58749235029944</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>288.2375174188805</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>214.6609491381282</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>68.74868616823397</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>19.49905836424245</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>328.4290506805506</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>10.74297899850855</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>133.1027370193844</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>10.24879669781179</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2323,16 +2323,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>162.6159201417017</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>106.1117155756198</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>154.6268617582982</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>57.02146927219707</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>281.8418017252673</v>
+        <v>190.1921129400374</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>66.4122033602259</v>
+        <v>28.20584125154398</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,16 +2794,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>194.5963191508001</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>137.1118824501689</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>98.80399951402411</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>75.42385309393752</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>86.0142904142587</v>
       </c>
       <c r="G32" t="n">
-        <v>312.4227543539021</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6.380068175847859</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>109.9022384814631</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>288.2822493900566</v>
+        <v>79.03187764303514</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3435,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>249.6801140405074</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>194.0339972232905</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>120.5381589265364</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>173.5578851713666</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>114.6033320444574</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.72703424640802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,13 +3748,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>167.6412050236358</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>328.371230309406</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3796,7 +3796,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>69.60662835550697</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>7.054371702530618</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>324.3727542084972</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>131.154233274639</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>235.9955072668619</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.7225503044907</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917602</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052543</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030608</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4366,16 +4366,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388466</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388466</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="Y2" t="n">
-        <v>522.1002068716687</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957466</v>
       </c>
       <c r="L3" t="n">
         <v>242.5255548298713</v>
@@ -4427,7 +4427,7 @@
         <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4439,22 +4439,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>919.0821120619953</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428381</v>
+        <v>690.9462660988088</v>
       </c>
       <c r="V3" t="n">
-        <v>591.5675658110954</v>
+        <v>690.9462660988088</v>
       </c>
       <c r="W3" t="n">
-        <v>337.3302090828938</v>
+        <v>436.7089093706072</v>
       </c>
       <c r="X3" t="n">
-        <v>129.4787088773609</v>
+        <v>228.8574091650744</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.94668242379612</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4515,25 +4515,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640389</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="U4" t="n">
-        <v>563.0088271968609</v>
+        <v>581.690828849358</v>
       </c>
       <c r="V4" t="n">
-        <v>308.3243389909741</v>
+        <v>327.0063406434712</v>
       </c>
       <c r="W4" t="n">
-        <v>41.94668242379612</v>
+        <v>60.62868407629315</v>
       </c>
       <c r="X4" t="n">
-        <v>41.94668242379612</v>
+        <v>60.62868407629315</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.94668242379612</v>
+        <v>60.62868407629315</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>402.8279533317689</v>
+        <v>907.8946255534274</v>
       </c>
       <c r="C5" t="n">
-        <v>33.86543639135723</v>
+        <v>907.8946255534274</v>
       </c>
       <c r="D5" t="n">
-        <v>33.86543639135723</v>
+        <v>907.8946255534274</v>
       </c>
       <c r="E5" t="n">
-        <v>33.86543639135723</v>
+        <v>907.8946255534274</v>
       </c>
       <c r="F5" t="n">
-        <v>33.86543639135723</v>
+        <v>496.9087207638199</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135723</v>
+        <v>80.46241177686881</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135738</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135738</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780274</v>
+        <v>108.460446878028</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818682</v>
+        <v>270.9975490818696</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373965</v>
+        <v>509.5409587373993</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176455</v>
+        <v>806.6359018176491</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058966</v>
+        <v>1113.151960058971</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836693</v>
+        <v>1389.251120836699</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921683</v>
+        <v>1590.39436592169</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567861</v>
+        <v>1551.674342961958</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567861</v>
+        <v>1551.674342961958</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567861</v>
+        <v>1298.033957529239</v>
       </c>
       <c r="V5" t="n">
-        <v>1362.20893222429</v>
+        <v>1298.033957529239</v>
       </c>
       <c r="W5" t="n">
-        <v>1362.20893222429</v>
+        <v>1298.033957529239</v>
       </c>
       <c r="X5" t="n">
-        <v>1179.567125371702</v>
+        <v>1298.033957529239</v>
       </c>
       <c r="Y5" t="n">
-        <v>789.4277933958907</v>
+        <v>907.8946255534274</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.037301058064</v>
+        <v>426.9356166949525</v>
       </c>
       <c r="C6" t="n">
-        <v>342.037301058064</v>
+        <v>426.9356166949525</v>
       </c>
       <c r="D6" t="n">
-        <v>193.1028913968127</v>
+        <v>278.0012070337012</v>
       </c>
       <c r="E6" t="n">
-        <v>33.86543639135723</v>
+        <v>278.0012070337012</v>
       </c>
       <c r="F6" t="n">
-        <v>33.86543639135723</v>
+        <v>131.4666490605862</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135723</v>
+        <v>131.4666490605862</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135738</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135738</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324411</v>
+        <v>184.3059916402493</v>
       </c>
       <c r="K6" t="n">
-        <v>443.2235805075018</v>
+        <v>306.2331208520548</v>
       </c>
       <c r="L6" t="n">
-        <v>664.2464887357621</v>
+        <v>516.5017339747901</v>
       </c>
       <c r="M6" t="n">
-        <v>928.9769106925028</v>
+        <v>781.2321559315317</v>
       </c>
       <c r="N6" t="n">
-        <v>1215.12260410423</v>
+        <v>1067.37784934326</v>
       </c>
       <c r="O6" t="n">
-        <v>1454.670215278427</v>
+        <v>1306.925460517458</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.595225892896</v>
+        <v>1479.850471131927</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.078019232582</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843107</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="T6" t="n">
-        <v>1354.574272178445</v>
+        <v>1520.416924784434</v>
       </c>
       <c r="U6" t="n">
-        <v>1126.45806483393</v>
+        <v>1292.300717439919</v>
       </c>
       <c r="V6" t="n">
-        <v>891.3059566021871</v>
+        <v>1057.148609208176</v>
       </c>
       <c r="W6" t="n">
-        <v>637.0685998739855</v>
+        <v>802.9112524799743</v>
       </c>
       <c r="X6" t="n">
-        <v>429.2170996684526</v>
+        <v>802.9112524799743</v>
       </c>
       <c r="Y6" t="n">
-        <v>342.037301058064</v>
+        <v>595.1509537150205</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.86543639135723</v>
+        <v>146.8937452697685</v>
       </c>
       <c r="C7" t="n">
-        <v>33.86543639135723</v>
+        <v>146.8937452697685</v>
       </c>
       <c r="D7" t="n">
-        <v>33.86543639135723</v>
+        <v>146.8937452697685</v>
       </c>
       <c r="E7" t="n">
-        <v>33.86543639135723</v>
+        <v>146.8937452697685</v>
       </c>
       <c r="F7" t="n">
-        <v>33.86543639135723</v>
+        <v>146.8937452697685</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135738</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135738</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135738</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652175</v>
+        <v>36.2851213365221</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128594</v>
+        <v>170.09824371286</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119581</v>
+        <v>396.8594047119591</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191529</v>
+        <v>646.3363778191544</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361642</v>
+        <v>895.3159625361662</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021379</v>
+        <v>1109.272612021382</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580465</v>
+        <v>1268.828805580467</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="S7" t="n">
-        <v>1093.436447486383</v>
+        <v>1093.436447486386</v>
       </c>
       <c r="T7" t="n">
-        <v>869.0366964708257</v>
+        <v>1093.436447486386</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9002150996384</v>
+        <v>1093.436447486386</v>
       </c>
       <c r="V7" t="n">
-        <v>325.2157268937516</v>
+        <v>838.7519592804989</v>
       </c>
       <c r="W7" t="n">
-        <v>325.2157268937516</v>
+        <v>549.3347892435384</v>
       </c>
       <c r="X7" t="n">
-        <v>97.22617599573425</v>
+        <v>549.3347892435384</v>
       </c>
       <c r="Y7" t="n">
-        <v>97.22617599573425</v>
+        <v>328.5422101000082</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1236.203140240072</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.203140240072</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>1068.749016418407</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>657.7631116287994</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>242.0583613530882</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1979.111127485998</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1979.111127485998</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1626.342472215884</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X8" t="n">
-        <v>1626.342472215884</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y8" t="n">
-        <v>1236.203140240072</v>
+        <v>1841.137109080773</v>
       </c>
     </row>
     <row r="9">
@@ -4874,40 +4874,40 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143497</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458216</v>
+        <v>909.2465818694942</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800312</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800312</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800312</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312202</v>
@@ -4992,22 +4992,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>927.720553932932</v>
+        <v>1150.699034738197</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4460866465112</v>
+        <v>896.0145465323097</v>
       </c>
       <c r="W10" t="n">
-        <v>500.0289166095505</v>
+        <v>896.0145465323097</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0393657115332</v>
+        <v>668.0249956342924</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800312</v>
+        <v>668.0249956342924</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1179.52858457759</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="C11" t="n">
-        <v>810.5660676371781</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D11" t="n">
-        <v>452.3003690304276</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E11" t="n">
-        <v>66.51211643218343</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052369</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066532</v>
+        <v>2711.337401879563</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796418</v>
+        <v>2711.337401879563</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535338</v>
+        <v>2337.871643618483</v>
       </c>
       <c r="Y11" t="n">
-        <v>1566.128424641711</v>
+        <v>1947.732311642671</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>231.8553933260938</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C13" t="n">
-        <v>231.8553933260938</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D13" t="n">
-        <v>231.8553933260938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E13" t="n">
-        <v>231.8553933260938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>84.96544582818348</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
         <v>66.51211643218343</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1814.182231413406</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1592.415615982932</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1303.312749108575</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>1048.628260902688</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>759.2110908657279</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260938</v>
+        <v>531.2215399677106</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1944.904841306683</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C14" t="n">
-        <v>1575.942324366272</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5299,31 +5299,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V14" t="n">
-        <v>2755.806928794325</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W14" t="n">
-        <v>2403.038273524211</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X14" t="n">
-        <v>2403.038273524211</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y14" t="n">
-        <v>2012.898941548399</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="15">
@@ -5354,10 +5354,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.2351809199101</v>
+        <v>912.4415581410489</v>
       </c>
       <c r="C16" t="n">
-        <v>675.2351809199101</v>
+        <v>743.505375213142</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2351809199101</v>
+        <v>743.505375213142</v>
       </c>
       <c r="E16" t="n">
-        <v>527.322087337517</v>
+        <v>595.5922816307489</v>
       </c>
       <c r="F16" t="n">
-        <v>380.4321398396067</v>
+        <v>448.7023341328385</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143257</v>
+        <v>280.9994975075574</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>134.7823107254152</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1446.505797040963</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V16" t="n">
-        <v>1191.821308835076</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W16" t="n">
-        <v>902.4041387981149</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X16" t="n">
-        <v>902.4041387981149</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y16" t="n">
-        <v>681.6115596545848</v>
+        <v>1094.090022971289</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1320.35562273557</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>1320.35562273557</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V17" t="n">
-        <v>2741.012457539437</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.243802269322</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X17" t="n">
-        <v>2097.094794775503</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y17" t="n">
-        <v>1706.955462799692</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5600,7 +5600,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994.2880032601528</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3518203322459</v>
+        <v>135.9552337738339</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W19" t="n">
-        <v>1416.425065783662</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X19" t="n">
-        <v>1396.729047233923</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y19" t="n">
-        <v>1175.936468090393</v>
+        <v>486.5398815319805</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.586939522201</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1610.105239813979</v>
       </c>
       <c r="D20" t="n">
         <v>1278.358723975039</v>
@@ -5761,7 +5761,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5791,13 +5791,13 @@
         <v>2755.806928794324</v>
       </c>
       <c r="W20" t="n">
-        <v>2403.03827352421</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X20" t="n">
-        <v>2392.186779586323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y20" t="n">
-        <v>2392.186779586323</v>
+        <v>2365.667596818512</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>498.9890585374015</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C22" t="n">
-        <v>498.9890585374015</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D22" t="n">
-        <v>348.8724191250658</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>200.9593255426727</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>200.9593255426727</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5940,22 +5940,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U22" t="n">
-        <v>1224.739181610489</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V22" t="n">
-        <v>970.0546934046018</v>
+        <v>1436.153477144183</v>
       </c>
       <c r="W22" t="n">
-        <v>680.6375233676413</v>
+        <v>1146.736307107222</v>
       </c>
       <c r="X22" t="n">
-        <v>680.6375233676413</v>
+        <v>918.7467562092049</v>
       </c>
       <c r="Y22" t="n">
-        <v>680.6375233676413</v>
+        <v>697.9541770656748</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1204.726236768953</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C23" t="n">
-        <v>835.7637198285415</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D23" t="n">
-        <v>477.498021221791</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
         <v>66.51211643218342</v>
@@ -5989,16 +5989,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6019,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y23" t="n">
-        <v>1591.326076833075</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="24">
@@ -6059,10 +6059,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
@@ -6071,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6086,7 +6086,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>848.0708164780106</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="C25" t="n">
-        <v>679.1346335501037</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>124.1095601414734</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218342</v>
@@ -6147,16 +6147,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6168,31 +6168,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1548.361223971664</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V25" t="n">
-        <v>1293.676735765777</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W25" t="n">
-        <v>1004.259565728817</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X25" t="n">
-        <v>1004.259565728817</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y25" t="n">
-        <v>1004.259565728817</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1904.487375535338</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C26" t="n">
-        <v>1535.524858594926</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.259159988176</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
@@ -6247,7 +6247,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X26" t="n">
-        <v>1904.487375535338</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>1904.487375535338</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="27">
@@ -6302,16 +6302,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6323,7 +6323,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>452.6479724696239</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="C28" t="n">
-        <v>283.7117895417171</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="D28" t="n">
-        <v>133.5951501293813</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
@@ -6405,31 +6405,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V28" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W28" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X28" t="n">
-        <v>452.6479724696239</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.6479724696239</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1422.200456328343</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C29" t="n">
-        <v>1225.638517792182</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D29" t="n">
-        <v>867.3728191854311</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E29" t="n">
-        <v>481.5845665871869</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.034709923659</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.266054653545</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="X29" t="n">
-        <v>1808.800296392465</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y29" t="n">
-        <v>1808.800296392465</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>678.4618728343356</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C31" t="n">
-        <v>678.4618728343356</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D31" t="n">
-        <v>528.3452334219999</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E31" t="n">
-        <v>380.4321398396067</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
         <v>1317.747152581905</v>
@@ -6642,31 +6642,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T31" t="n">
-        <v>1735.608663915319</v>
+        <v>1827.492528377357</v>
       </c>
       <c r="U31" t="n">
-        <v>1446.505797040963</v>
+        <v>1538.389661503</v>
       </c>
       <c r="V31" t="n">
-        <v>1446.505797040963</v>
+        <v>1283.705173297113</v>
       </c>
       <c r="W31" t="n">
-        <v>1157.088627004002</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="X31" t="n">
-        <v>1080.902916808105</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="Y31" t="n">
-        <v>860.1103376645754</v>
+        <v>994.2880032601528</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1845.410930903096</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C32" t="n">
-        <v>1476.448413962684</v>
+        <v>1610.105239813979</v>
       </c>
       <c r="D32" t="n">
-        <v>1476.448413962684</v>
+        <v>1251.839541207228</v>
       </c>
       <c r="E32" t="n">
-        <v>1090.66016136444</v>
+        <v>866.0512886089841</v>
       </c>
       <c r="F32" t="n">
-        <v>679.6742565748325</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
         <v>364.0957168234162</v>
@@ -6700,19 +6700,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W32" t="n">
-        <v>2609.016021139988</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X32" t="n">
-        <v>2235.550262878908</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y32" t="n">
-        <v>1845.410930903096</v>
+        <v>2365.667596818512</v>
       </c>
     </row>
     <row r="33">
@@ -6770,10 +6770,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
@@ -6782,10 +6782,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6797,7 +6797,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>241.8928126690276</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C34" t="n">
-        <v>72.95662974112065</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D34" t="n">
-        <v>72.95662974112065</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>72.95662974112065</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
         <v>66.51211643218342</v>
@@ -6858,16 +6858,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
         <v>1317.747152581905</v>
@@ -6879,31 +6879,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U34" t="n">
         <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>1161.740577577775</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W34" t="n">
-        <v>872.3234075408147</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X34" t="n">
-        <v>644.3338566427974</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y34" t="n">
-        <v>423.5412774992673</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1881.708680670285</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C35" t="n">
-        <v>1512.746163729873</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D35" t="n">
-        <v>1154.480465123123</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E35" t="n">
-        <v>768.6922125248784</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F35" t="n">
-        <v>357.7063077352709</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G35" t="n">
-        <v>357.7063077352709</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.542934265601</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995486</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.308520734407</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y35" t="n">
-        <v>2268.308520734407</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.4780323548192</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>364.5418494269123</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U37" t="n">
-        <v>1453.325797263567</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V37" t="n">
-        <v>1453.325797263567</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W37" t="n">
-        <v>1163.908627226606</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X37" t="n">
-        <v>935.9190763285891</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y37" t="n">
-        <v>715.126497185059</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1822.632236038043</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C38" t="n">
-        <v>1453.669719097631</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D38" t="n">
-        <v>1453.669719097631</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E38" t="n">
-        <v>1067.881466499387</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F38" t="n">
-        <v>656.8955617097795</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G38" t="n">
-        <v>241.8231115547759</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7174,16 +7174,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X38" t="n">
-        <v>2599.371408077976</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.232076102165</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="39">
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>1619.847722456271</v>
       </c>
       <c r="U40" t="n">
-        <v>1638.191681214136</v>
+        <v>1330.744855581915</v>
       </c>
       <c r="V40" t="n">
-        <v>1383.507193008249</v>
+        <v>1076.060367376028</v>
       </c>
       <c r="W40" t="n">
-        <v>1094.090022971289</v>
+        <v>1076.060367376028</v>
       </c>
       <c r="X40" t="n">
-        <v>1094.090022971289</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y40" t="n">
-        <v>1029.71928130825</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1808.800296392465</v>
+        <v>1675.730933054507</v>
       </c>
       <c r="C41" t="n">
-        <v>1439.837779452053</v>
+        <v>1306.768416114095</v>
       </c>
       <c r="D41" t="n">
-        <v>1081.572080845303</v>
+        <v>948.5027175073449</v>
       </c>
       <c r="E41" t="n">
-        <v>695.7838282470586</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F41" t="n">
-        <v>695.7838282470586</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
         <v>364.0957168234162</v>
@@ -7411,19 +7411,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7444,19 +7444,19 @@
         <v>3119.628073993394</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.09759726723</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.034709923659</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W41" t="n">
-        <v>2182.266054653545</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X41" t="n">
-        <v>1808.800296392465</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y41" t="n">
-        <v>1808.800296392465</v>
+        <v>2062.330773118629</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064548</v>
@@ -7490,22 +7490,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
         <v>2407.411984886741</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>708.3064969624544</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C43" t="n">
-        <v>539.3703140345475</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D43" t="n">
-        <v>389.2536746222117</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E43" t="n">
-        <v>241.3405810398186</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
         <v>66.51211643218343</v>
@@ -7599,22 +7599,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1446.505797040963</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1446.505797040963</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>1157.088627004002</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>929.0990761059845</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y43" t="n">
-        <v>708.3064969624544</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1179.430764345701</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C44" t="n">
-        <v>1179.430764345701</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="D44" t="n">
-        <v>821.1650657389509</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>821.1650657389509</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
@@ -7648,16 +7648,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7684,16 +7684,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y44" t="n">
-        <v>1566.030604409823</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
         <v>765.1517452158131</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7842,16 +7842,16 @@
         <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X46" t="n">
-        <v>468.9531604059532</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127261</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157973</v>
+        <v>25.82445471157934</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>10.86292434901591</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>149.0413681067568</v>
       </c>
       <c r="R6" t="n">
-        <v>45.32591189688999</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780642</v>
+        <v>193.3273467878345</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>132.9937062656811</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22606,13 +22606,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>116.9617832120864</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
         <v>122.5240586545474</v>
@@ -22679,13 +22679,13 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>60.42531372028759</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>98.38491328483634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>140.6957222425264</v>
       </c>
       <c r="C4" t="n">
-        <v>146.605744795189</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22755,19 +22755,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323769</v>
+        <v>262.4060902007205</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539882</v>
+        <v>94.01296546539857</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398515</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>188.9157118944068</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,19 +22871,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253653</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813375</v>
+        <v>33.74703566813364</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,10 +22913,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>22.52348097241418</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>119.3746951530196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117.1048479736041</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22956,13 +22956,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>54.73788558688111</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679149</v>
+        <v>150.1793862679148</v>
       </c>
       <c r="I7" t="n">
-        <v>114.699885070052</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887347</v>
+        <v>116.3646073887346</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>112.1150935251711</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247044</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>3.759731602473749</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>29.21362505281309</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23187,16 +23187,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -23232,22 +23232,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>115.2459207102713</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>283.7274268245206</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>51.26257727136351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>147.7570121569882</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23466,7 +23466,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>77.78783182310559</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315.4196824241822</v>
+        <v>145.9927856228086</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.5193652346094</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>28.76492805953865</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>81.49358325958849</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>171.5769895179254</v>
       </c>
     </row>
     <row r="18">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>79.86678684997838</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>206.2105970247947</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>26.25399094013238</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>358.9881216799605</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>32.92307123964386</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.8888466260162</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>165.1363383284333</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>280.1262230804338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.20511842363911</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>109.0043389868312</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>100.0885683469945</v>
+        <v>191.7382571322244</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>80.02175928634327</v>
+        <v>118.2281213950252</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>170.6765726202075</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>232.6192182283002</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>120.7449497621451</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>150.2858022950996</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>320.8617553274527</v>
       </c>
       <c r="G32" t="n">
-        <v>98.49897129955133</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>139.0409798470834</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>142.2354048423649</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>6.325514997263895</v>
+        <v>215.5758867442853</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -25213,7 +25213,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,22 +25362,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>36.53172416510546</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>92.4890011133005</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>234.1448826941465</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>121.0498792159538</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>104.9456172317118</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.8576191056868</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>214.289165048626</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>82.55049534404742</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>110.2253518264303</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>138.3666763204006</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,19 +25870,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>30.31028741218574</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>255.0837053814145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>16.14213605696614</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>523336.9476551464</v>
+        <v>523336.9476551466</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>633834.012008072</v>
+        <v>633834.0120080733</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>782991.1269625627</v>
+        <v>782991.1269625626</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861641.9069024868</v>
+        <v>861641.9069024867</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>861641.9069024866</v>
+        <v>861641.9069024865</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>861641.9069024867</v>
+        <v>861641.9069024866</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861641.9069024867</v>
+        <v>861641.9069024866</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861641.9069024868</v>
+        <v>861641.9069024865</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>861641.9069024869</v>
+        <v>861641.9069024866</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>861641.9069024867</v>
+        <v>861641.9069024868</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>861641.9069024868</v>
+        <v>861641.9069024867</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>203966.5811971124</v>
       </c>
       <c r="C2" t="n">
-        <v>247461.8373661097</v>
+        <v>247461.8373661102</v>
       </c>
       <c r="D2" t="n">
         <v>305971.6304943087</v>
       </c>
       <c r="E2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="F2" t="n">
         <v>340997.0989709204</v>
-      </c>
-      <c r="F2" t="n">
-        <v>340997.0989709205</v>
       </c>
       <c r="G2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="H2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="I2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="J2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="K2" t="n">
         <v>340997.0989709206</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>340997.0989709208</v>
+      </c>
+      <c r="M2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>340997.0989709206</v>
       </c>
-      <c r="K2" t="n">
-        <v>340997.0989709207</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>340997.0989709206</v>
-      </c>
-      <c r="M2" t="n">
-        <v>340997.0989709204</v>
-      </c>
-      <c r="N2" t="n">
-        <v>340997.0989709205</v>
-      </c>
-      <c r="O2" t="n">
-        <v>340997.0989709205</v>
       </c>
       <c r="P2" t="n">
         <v>340997.0989709206</v>
@@ -26368,10 +26368,10 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739485</v>
+        <v>176672.6241739507</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819091</v>
+        <v>223886.3093819071</v>
       </c>
       <c r="E3" t="n">
         <v>182072.9798171905</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640768</v>
+        <v>41076.98154640809</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946851</v>
+        <v>54988.29121946814</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>47552.26579341507</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13649.17455297509</v>
+        <v>13649.1745529751</v>
       </c>
       <c r="C4" t="n">
-        <v>15532.04813854869</v>
+        <v>15532.04813854871</v>
       </c>
       <c r="D4" t="n">
-        <v>18583.86599059035</v>
+        <v>18583.86599059034</v>
       </c>
       <c r="E4" t="n">
         <v>9770.403102091475</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923103</v>
+        <v>75746.87167923119</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984473</v>
@@ -26496,7 +26496,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-563146.0923380734</v>
+        <v>-553851.1486699971</v>
       </c>
       <c r="C6" t="n">
-        <v>-28642.65900392015</v>
+        <v>-21305.00186345048</v>
       </c>
       <c r="D6" t="n">
-        <v>-34663.78003992711</v>
+        <v>-29959.06359022266</v>
       </c>
       <c r="E6" t="n">
-        <v>71371.18619218412</v>
+        <v>74499.75656043933</v>
       </c>
       <c r="F6" t="n">
-        <v>253444.1660093747</v>
+        <v>256572.7363776296</v>
       </c>
       <c r="G6" t="n">
-        <v>253444.1660093747</v>
+        <v>256572.7363776296</v>
       </c>
       <c r="H6" t="n">
-        <v>253444.1660093748</v>
+        <v>256572.7363776296</v>
       </c>
       <c r="I6" t="n">
-        <v>253444.1660093747</v>
+        <v>256572.73637763</v>
       </c>
       <c r="J6" t="n">
-        <v>184445.0115902607</v>
+        <v>187573.5819585157</v>
       </c>
       <c r="K6" t="n">
-        <v>212367.1844629672</v>
+        <v>215495.7548312217</v>
       </c>
       <c r="L6" t="n">
-        <v>198455.8747899063</v>
+        <v>201584.4451581618</v>
       </c>
       <c r="M6" t="n">
-        <v>205891.9002159597</v>
+        <v>209020.4705842145</v>
       </c>
       <c r="N6" t="n">
-        <v>253444.1660093747</v>
+        <v>256572.7363776297</v>
       </c>
       <c r="O6" t="n">
-        <v>253444.1660093747</v>
+        <v>256572.7363776297</v>
       </c>
       <c r="P6" t="n">
-        <v>253444.1660093748</v>
+        <v>256572.7363776297</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>751.446789990805</v>
+        <v>751.4467899908066</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175394</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919653</v>
+        <v>423.3179548919672</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26962,10 +26962,10 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213267</v>
+        <v>137.3917762213283</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267345</v>
+        <v>182.6181021267329</v>
       </c>
       <c r="E3" t="n">
         <v>155.7118084757589</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904591</v>
+        <v>159.604074890461</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080737</v>
+        <v>217.2668772080716</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904591</v>
+        <v>159.6040748904607</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080734</v>
+        <v>217.2668772080719</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904591</v>
+        <v>159.604074890461</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080737</v>
+        <v>217.2668772080716</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053485</v>
+        <v>3.020891618053491</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339026</v>
+        <v>30.93770628339033</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050071</v>
+        <v>116.4629241050073</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677672</v>
+        <v>256.3943999677678</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599713</v>
+        <v>384.2687421599721</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159757</v>
+        <v>476.7193540159768</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285344</v>
+        <v>530.4421353285355</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383289</v>
+        <v>539.02524363833</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113095</v>
+        <v>508.9862526113106</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906141</v>
+        <v>434.407990790615</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190735</v>
+        <v>326.2223097190742</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025524</v>
+        <v>189.7610831025528</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639386</v>
+        <v>68.83856774639401</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802914</v>
+        <v>13.22395305802917</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442787</v>
+        <v>0.2416713294442793</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.61631951054626</v>
+        <v>1.616319510546263</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395993</v>
+        <v>15.61024369395997</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328132</v>
+        <v>55.64959718328144</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433201</v>
+        <v>152.7067481433205</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499195</v>
+        <v>261.0001553499201</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876869</v>
+        <v>350.9469182876876</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449887</v>
+        <v>409.5385005449895</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345731</v>
+        <v>420.377766034574</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587849</v>
+        <v>384.5635284587857</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077327</v>
+        <v>308.6461353077334</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.321767697098</v>
+        <v>206.3217676970985</v>
       </c>
       <c r="R6" t="n">
-        <v>100.353592067074</v>
+        <v>100.3535920670742</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633073</v>
+        <v>30.02242599633079</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807071</v>
+        <v>6.514901886807085</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043592</v>
+        <v>0.1063368099043595</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950632</v>
+        <v>1.355067981950635</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952472</v>
+        <v>12.04778623952474</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720629</v>
+        <v>40.75058985720637</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390967</v>
+        <v>95.80330632390987</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029916</v>
+        <v>157.4342619029919</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165512</v>
+        <v>201.4616525165517</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706795</v>
+        <v>212.4130655706799</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379545</v>
+        <v>207.362357637955</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488039</v>
+        <v>191.5326998488043</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170109</v>
+        <v>163.8893130170112</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886116</v>
+        <v>113.4684652886118</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843475</v>
+        <v>60.92878398843489</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544873</v>
+        <v>23.61513928544878</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879971</v>
+        <v>5.789835922879983</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0739127990154891</v>
+        <v>0.07391279901548925</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32481,7 +32481,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
         <v>781.7148990095023</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34795,10 +34795,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250136</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.3484954410809</v>
+        <v>75.34849544108147</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149907</v>
+        <v>164.1788911149916</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459885</v>
+        <v>240.9529390459895</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012617</v>
+        <v>300.0959021012628</v>
       </c>
       <c r="N5" t="n">
-        <v>309.612180041738</v>
+        <v>309.6121800417391</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896228</v>
+        <v>278.8880411896239</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353445</v>
+        <v>203.1749950353454</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.916619844624</v>
+        <v>103.9166198446247</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665342</v>
+        <v>151.9601568170626</v>
       </c>
       <c r="K6" t="n">
-        <v>387.6239533881391</v>
+        <v>123.1587163755611</v>
       </c>
       <c r="L6" t="n">
-        <v>223.2554628568286</v>
+        <v>212.3925385078134</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229703</v>
+        <v>267.4044666229712</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512398</v>
+        <v>289.0360539512407</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143405</v>
+        <v>241.9672840143413</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934025</v>
+        <v>174.6717278934032</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107649</v>
+        <v>215.3813617178338</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1957579144310415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236891</v>
+        <v>2.44412620723709</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771087</v>
+        <v>135.164770077109</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768674</v>
+        <v>229.0516777768678</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325201</v>
+        <v>251.9969425325205</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171831</v>
+        <v>251.4945300171836</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628436</v>
+        <v>216.117827762844</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819044</v>
+        <v>161.1678722819047</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691717</v>
+        <v>27.3064220369174</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378503</v>
@@ -35275,7 +35275,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
